--- a/Documentos/RFC/SHC-RFC-1.xlsx
+++ b/Documentos/RFC/SHC-RFC-1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>FORMATO SOLICITUD DE CAMBIOS</t>
   </si>
@@ -22,18 +22,12 @@
     <t>ID</t>
   </si>
   <si>
-    <t>XXXXX (Autoincrementado)</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
     <t>Area Origen</t>
   </si>
   <si>
-    <t>Usuario</t>
-  </si>
-  <si>
     <t>Detalle</t>
   </si>
   <si>
@@ -46,15 +40,6 @@
     <t>Archivos HC</t>
   </si>
   <si>
-    <t>Juan Perez</t>
-  </si>
-  <si>
-    <t>Rol</t>
-  </si>
-  <si>
-    <t>Archivador</t>
-  </si>
-  <si>
     <t>Asi ahorramos tiempo en la selección y se optimiza esta tarea</t>
   </si>
   <si>
@@ -74,6 +59,24 @@
   </si>
   <si>
     <t>Sistema Control Historias Clinicas</t>
+  </si>
+  <si>
+    <t>1 (Juan Hidalgo)</t>
+  </si>
+  <si>
+    <t>Fuente</t>
+  </si>
+  <si>
+    <t>Autores</t>
+  </si>
+  <si>
+    <t>Archivador (Rosa Chavez)</t>
+  </si>
+  <si>
+    <t>Encargado de RFC (Juan Perez)</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -325,7 +328,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -360,7 +363,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -569,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D15"/>
+  <dimension ref="C2:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,12 +597,12 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4">
         <v>40475</v>
@@ -611,66 +614,71 @@
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C11" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C13" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Documentos/RFC/SHC-RFC-1.xlsx
+++ b/Documentos/RFC/SHC-RFC-1.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>FORMATO SOLICITUD DE CAMBIOS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -76,7 +73,7 @@
     <t>Encargado de RFC (Juan Perez)</t>
   </si>
   <si>
-    <t>,</t>
+    <t xml:space="preserve">FORMATO SOLICITUD DE CAMBIOS </t>
   </si>
 </sst>
 </file>
@@ -572,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D68"/>
+  <dimension ref="C2:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,22 +584,22 @@
     <row r="2" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="10" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4">
         <v>40475</v>
@@ -614,71 +611,66 @@
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C11" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C13" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="15" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Documentos/RFC/SHC-RFC-1.xlsx
+++ b/Documentos/RFC/SHC-RFC-1.xlsx
@@ -70,10 +70,10 @@
     <t>Archivador (Rosa Chavez)</t>
   </si>
   <si>
-    <t>Encargado de RFC (Juan Perez)</t>
-  </si>
-  <si>
     <t xml:space="preserve">FORMATO SOLICITUD DE CAMBIOS </t>
+  </si>
+  <si>
+    <t>Jefe del area (Juan Perez)</t>
   </si>
 </sst>
 </file>
@@ -569,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D15"/>
+  <dimension ref="C2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,15 +581,15 @@
     <col min="4" max="4" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +597,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
@@ -605,11 +605,11 @@
         <v>40475</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
@@ -617,23 +617,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" ht="45" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C11" s="6" t="s">
         <v>3</v>
       </c>
@@ -641,7 +643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
@@ -649,7 +651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C13" s="6" t="s">
         <v>4</v>
       </c>
@@ -657,7 +659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
@@ -665,7 +667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="8" t="s">
         <v>5</v>
       </c>
@@ -678,6 +680,6 @@
     <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentos/RFC/SHC-RFC-1.xlsx
+++ b/Documentos/RFC/SHC-RFC-1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Justificacion</t>
   </si>
   <si>
-    <t>Jefe de Area</t>
-  </si>
-  <si>
     <t>Archivos HC</t>
   </si>
   <si>
@@ -47,9 +44,6 @@
   </si>
   <si>
     <t>Media</t>
-  </si>
-  <si>
-    <t>Ollanta Humala</t>
   </si>
   <si>
     <t>Sistema-Modulo</t>
@@ -114,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -186,36 +180,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -242,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -257,12 +221,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -569,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F15"/>
+  <dimension ref="C2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,10 +545,10 @@
   <sheetData>
     <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="11"/>
+      <c r="C3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
@@ -594,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
@@ -614,41 +576,40 @@
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C11" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -656,22 +617,14 @@
         <v>4</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="9" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Documentos/RFC/SHC-RFC-1.xlsx
+++ b/Documentos/RFC/SHC-RFC-1.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>FORMATO SOLICITUD DE CAMBIOS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -34,9 +31,6 @@
     <t>Justificacion</t>
   </si>
   <si>
-    <t>Jefe de Area</t>
-  </si>
-  <si>
     <t>Archivos HC</t>
   </si>
   <si>
@@ -52,9 +46,6 @@
     <t>Media</t>
   </si>
   <si>
-    <t>Ollanta Humala</t>
-  </si>
-  <si>
     <t>Sistema-Modulo</t>
   </si>
   <si>
@@ -73,10 +64,10 @@
     <t>Archivador (Rosa Chavez)</t>
   </si>
   <si>
-    <t>Encargado de RFC (Juan Perez)</t>
-  </si>
-  <si>
-    <t>,</t>
+    <t xml:space="preserve">FORMATO SOLICITUD DE CAMBIOS </t>
+  </si>
+  <si>
+    <t>Jefe del area (Juan Perez)</t>
   </si>
 </sst>
 </file>
@@ -117,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -189,36 +180,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -245,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -260,12 +221,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -572,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D68"/>
+  <dimension ref="C2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,101 +543,89 @@
     <col min="4" max="4" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="10" t="s">
+    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="D6" s="4">
         <v>40475</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C11" s="6" t="s">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="3" t="s">
+      <c r="D13" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -686,6 +633,6 @@
     <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>